--- a/SLSkeywordsremoveandadd/url.xlsx
+++ b/SLSkeywordsremoveandadd/url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lookang/Desktop/tagui/flows/SLStitlechange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEE91FD-5B23-A243-974D-F4FE5B6106A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFF4415-139C-F34B-BE46-7CE88103FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{EFC97B08-9D27-D040-9A8C-E5DF071C1109}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="115">
   <si>
     <t>https://vle.learning.moe.edu.sg/mrv/moe-library/lesson/view/8f68bb0d-a82e-4682-96f2-99a4a3dade6f/cover</t>
   </si>
@@ -333,6 +333,54 @@
   </si>
   <si>
     <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>lss nt</t>
+  </si>
+  <si>
+    <t>LSS NT</t>
+  </si>
+  <si>
+    <t>nt science</t>
+  </si>
+  <si>
+    <t>NT SCIENCE</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>NT Science</t>
+  </si>
+  <si>
+    <t>G1 science</t>
+  </si>
+  <si>
+    <t>Normal Technical</t>
+  </si>
+  <si>
+    <t>Normal Technical Science</t>
   </si>
 </sst>
 </file>
@@ -702,19 +750,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F12350-C4D9-C241-9F97-5C662FB82C99}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -724,136 +774,544 @@
       <c r="C1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -863,48 +1321,192 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -914,8 +1516,32 @@
       <c r="C24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -925,88 +1551,352 @@
       <c r="C25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -1016,24 +1906,96 @@
       <c r="C36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -1043,8 +2005,32 @@
       <c r="C39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -1054,8 +2040,32 @@
       <c r="C40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
@@ -1065,8 +2075,32 @@
       <c r="C41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" t="s">
+        <v>112</v>
+      </c>
+      <c r="J41" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -1076,8 +2110,32 @@
       <c r="C42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" t="s">
+        <v>112</v>
+      </c>
+      <c r="J42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
@@ -1087,8 +2145,32 @@
       <c r="C43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>89</v>
       </c>
@@ -1098,8 +2180,32 @@
       <c r="C44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -1109,8 +2215,32 @@
       <c r="C45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -1120,8 +2250,32 @@
       <c r="C46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -1131,8 +2285,32 @@
       <c r="C47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" t="s">
+        <v>112</v>
+      </c>
+      <c r="J47" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -1142,8 +2320,32 @@
       <c r="C48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -1153,8 +2355,32 @@
       <c r="C49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49" t="s">
+        <v>113</v>
+      </c>
+      <c r="K49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -1163,6 +2389,30 @@
       </c>
       <c r="C50" t="s">
         <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/SLSkeywordsremoveandadd/url.xlsx
+++ b/SLSkeywordsremoveandadd/url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lookang/Desktop/tagui/flows/SLStitlechange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFF4415-139C-F34B-BE46-7CE88103FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269BEA60-6B46-EE4B-8008-D1B28C0225EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{EFC97B08-9D27-D040-9A8C-E5DF071C1109}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="119">
   <si>
     <t>https://vle.learning.moe.edu.sg/mrv/moe-library/lesson/view/8f68bb0d-a82e-4682-96f2-99a4a3dade6f/cover</t>
   </si>
@@ -377,10 +377,22 @@
     <t>G1 science</t>
   </si>
   <si>
-    <t>Normal Technical</t>
-  </si>
-  <si>
     <t>Normal Technical Science</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>G1 LSS</t>
+  </si>
+  <si>
+    <t>G1 Science</t>
+  </si>
+  <si>
+    <t>Lower Secondary NT</t>
   </si>
 </sst>
 </file>
@@ -750,21 +762,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F12350-C4D9-C241-9F97-5C662FB82C99}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -798,8 +810,14 @@
       <c r="K1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -825,13 +843,19 @@
         <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -857,13 +881,19 @@
         <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -889,13 +919,19 @@
         <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -921,13 +957,19 @@
         <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -953,13 +995,19 @@
         <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -985,13 +1033,19 @@
         <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1017,13 +1071,19 @@
         <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -1049,13 +1109,19 @@
         <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1081,13 +1147,19 @@
         <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -1113,13 +1185,19 @@
         <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -1145,13 +1223,19 @@
         <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -1177,13 +1261,19 @@
         <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
@@ -1209,13 +1299,19 @@
         <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -1241,13 +1337,19 @@
         <v>112</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1273,13 +1375,19 @@
         <v>112</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1305,13 +1413,19 @@
         <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -1340,13 +1454,19 @@
         <v>112</v>
       </c>
       <c r="J18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L18" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1372,13 +1492,19 @@
         <v>112</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L19" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -1404,13 +1530,19 @@
         <v>112</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
@@ -1436,13 +1568,19 @@
         <v>112</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
@@ -1468,13 +1606,19 @@
         <v>112</v>
       </c>
       <c r="J22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L22" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -1500,13 +1644,19 @@
         <v>112</v>
       </c>
       <c r="J23" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L23" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -1535,13 +1685,19 @@
         <v>112</v>
       </c>
       <c r="J24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L24" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -1570,13 +1726,19 @@
         <v>112</v>
       </c>
       <c r="J25" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L25" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
@@ -1602,13 +1764,19 @@
         <v>112</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L26" t="s">
+        <v>116</v>
+      </c>
+      <c r="M26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -1634,13 +1802,19 @@
         <v>112</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L27" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
@@ -1666,13 +1840,19 @@
         <v>112</v>
       </c>
       <c r="J28" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L28" t="s">
+        <v>116</v>
+      </c>
+      <c r="M28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
@@ -1698,13 +1878,19 @@
         <v>112</v>
       </c>
       <c r="J29" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
@@ -1730,13 +1916,19 @@
         <v>112</v>
       </c>
       <c r="J30" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L30" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
@@ -1762,13 +1954,19 @@
         <v>112</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L31" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -1794,13 +1992,19 @@
         <v>112</v>
       </c>
       <c r="J32" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L32" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
@@ -1826,13 +2030,19 @@
         <v>112</v>
       </c>
       <c r="J33" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -1858,13 +2068,19 @@
         <v>112</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L34" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
@@ -1890,13 +2106,19 @@
         <v>112</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L35" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -1925,13 +2147,19 @@
         <v>112</v>
       </c>
       <c r="J36" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L36" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
@@ -1957,13 +2185,19 @@
         <v>112</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L37" t="s">
+        <v>116</v>
+      </c>
+      <c r="M37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
@@ -1989,13 +2223,19 @@
         <v>112</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L38" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -2024,13 +2264,19 @@
         <v>112</v>
       </c>
       <c r="J39" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L39" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2059,13 +2305,19 @@
         <v>112</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L40" t="s">
+        <v>116</v>
+      </c>
+      <c r="M40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
@@ -2094,13 +2346,19 @@
         <v>112</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L41" t="s">
+        <v>116</v>
+      </c>
+      <c r="M41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -2129,13 +2387,19 @@
         <v>112</v>
       </c>
       <c r="J42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L42" t="s">
+        <v>116</v>
+      </c>
+      <c r="M42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
@@ -2164,13 +2428,19 @@
         <v>112</v>
       </c>
       <c r="J43" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L43" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>89</v>
       </c>
@@ -2199,13 +2469,19 @@
         <v>112</v>
       </c>
       <c r="J44" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L44" t="s">
+        <v>116</v>
+      </c>
+      <c r="M44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -2234,13 +2510,19 @@
         <v>112</v>
       </c>
       <c r="J45" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -2269,13 +2551,19 @@
         <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L46" t="s">
+        <v>116</v>
+      </c>
+      <c r="M46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -2304,13 +2592,19 @@
         <v>112</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L47" t="s">
+        <v>116</v>
+      </c>
+      <c r="M47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -2339,10 +2633,16 @@
         <v>112</v>
       </c>
       <c r="J48" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K48" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="L48" t="s">
+        <v>116</v>
+      </c>
+      <c r="M48" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2374,10 +2674,10 @@
         <v>112</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2409,10 +2709,10 @@
         <v>112</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/SLSkeywordsremoveandadd/url.xlsx
+++ b/SLSkeywordsremoveandadd/url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lookang/Desktop/tagui/flows/SLStitlechange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269BEA60-6B46-EE4B-8008-D1B28C0225EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A5CEE4-2A8E-4742-B53A-80394B507A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{EFC97B08-9D27-D040-9A8C-E5DF071C1109}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="117">
   <si>
     <t>https://vle.learning.moe.edu.sg/mrv/moe-library/lesson/view/8f68bb0d-a82e-4682-96f2-99a4a3dade6f/cover</t>
   </si>
@@ -350,15 +350,9 @@
     <t>lss nt</t>
   </si>
   <si>
-    <t>LSS NT</t>
-  </si>
-  <si>
     <t>nt science</t>
   </si>
   <si>
-    <t>NT SCIENCE</t>
-  </si>
-  <si>
     <t>p8</t>
   </si>
   <si>
@@ -371,15 +365,9 @@
     <t>p11</t>
   </si>
   <si>
-    <t>NT Science</t>
-  </si>
-  <si>
     <t>G1 science</t>
   </si>
   <si>
-    <t>Normal Technical Science</t>
-  </si>
-  <si>
     <t>add1</t>
   </si>
   <si>
@@ -392,7 +380,13 @@
     <t>G1 Science</t>
   </si>
   <si>
-    <t>Lower Secondary NT</t>
+    <t>nts</t>
+  </si>
+  <si>
+    <t>n(t)</t>
+  </si>
+  <si>
+    <t>NT sci</t>
   </si>
 </sst>
 </file>
@@ -764,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F12350-C4D9-C241-9F97-5C662FB82C99}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,22 +793,22 @@
         <v>102</v>
       </c>
       <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
       <c r="M1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.2">
@@ -827,32 +821,29 @@
       <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -865,32 +856,29 @@
       <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -903,32 +891,29 @@
       <c r="D4" t="s">
         <v>103</v>
       </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -941,32 +926,29 @@
       <c r="D5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -979,32 +961,29 @@
       <c r="D6" t="s">
         <v>103</v>
       </c>
-      <c r="E6" t="s">
-        <v>104</v>
-      </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1017,32 +996,29 @@
       <c r="D7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s">
-        <v>104</v>
-      </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1055,32 +1031,29 @@
       <c r="D8" t="s">
         <v>103</v>
       </c>
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1093,32 +1066,29 @@
       <c r="D9" t="s">
         <v>103</v>
       </c>
-      <c r="E9" t="s">
-        <v>104</v>
-      </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1131,32 +1101,29 @@
       <c r="D10" t="s">
         <v>103</v>
       </c>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1169,32 +1136,29 @@
       <c r="D11" t="s">
         <v>103</v>
       </c>
-      <c r="E11" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1207,32 +1171,29 @@
       <c r="D12" t="s">
         <v>103</v>
       </c>
-      <c r="E12" t="s">
-        <v>104</v>
-      </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1245,32 +1206,29 @@
       <c r="D13" t="s">
         <v>103</v>
       </c>
-      <c r="E13" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1283,32 +1241,29 @@
       <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="E14" t="s">
-        <v>104</v>
-      </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1321,32 +1276,29 @@
       <c r="D15" t="s">
         <v>103</v>
       </c>
-      <c r="E15" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1359,32 +1311,29 @@
       <c r="D16" t="s">
         <v>103</v>
       </c>
-      <c r="E16" t="s">
-        <v>104</v>
-      </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1397,32 +1346,29 @@
       <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1438,32 +1384,29 @@
       <c r="D18" t="s">
         <v>103</v>
       </c>
-      <c r="E18" t="s">
-        <v>104</v>
-      </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1476,32 +1419,29 @@
       <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="E19" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1514,32 +1454,29 @@
       <c r="D20" t="s">
         <v>103</v>
       </c>
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1552,32 +1489,29 @@
       <c r="D21" t="s">
         <v>103</v>
       </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1590,32 +1524,29 @@
       <c r="D22" t="s">
         <v>103</v>
       </c>
-      <c r="E22" t="s">
-        <v>104</v>
-      </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1628,32 +1559,29 @@
       <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="E23" t="s">
-        <v>104</v>
-      </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1669,32 +1597,29 @@
       <c r="D24" t="s">
         <v>103</v>
       </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1710,32 +1635,29 @@
       <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" t="s">
-        <v>104</v>
-      </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1748,32 +1670,29 @@
       <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
-        <v>104</v>
-      </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1786,32 +1705,29 @@
       <c r="D27" t="s">
         <v>103</v>
       </c>
-      <c r="E27" t="s">
-        <v>104</v>
-      </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1824,32 +1740,29 @@
       <c r="D28" t="s">
         <v>103</v>
       </c>
-      <c r="E28" t="s">
-        <v>104</v>
-      </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1862,32 +1775,29 @@
       <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1900,32 +1810,29 @@
       <c r="D30" t="s">
         <v>103</v>
       </c>
-      <c r="E30" t="s">
-        <v>104</v>
-      </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1938,32 +1845,29 @@
       <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="E31" t="s">
-        <v>104</v>
-      </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1976,32 +1880,29 @@
       <c r="D32" t="s">
         <v>103</v>
       </c>
-      <c r="E32" t="s">
-        <v>104</v>
-      </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2014,32 +1915,29 @@
       <c r="D33" t="s">
         <v>103</v>
       </c>
-      <c r="E33" t="s">
-        <v>104</v>
-      </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2052,32 +1950,29 @@
       <c r="D34" t="s">
         <v>103</v>
       </c>
-      <c r="E34" t="s">
-        <v>104</v>
-      </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2090,32 +1985,29 @@
       <c r="D35" t="s">
         <v>103</v>
       </c>
-      <c r="E35" t="s">
-        <v>104</v>
-      </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2131,32 +2023,29 @@
       <c r="D36" t="s">
         <v>103</v>
       </c>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2169,32 +2058,29 @@
       <c r="D37" t="s">
         <v>103</v>
       </c>
-      <c r="E37" t="s">
-        <v>104</v>
-      </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2207,32 +2093,29 @@
       <c r="D38" t="s">
         <v>103</v>
       </c>
-      <c r="E38" t="s">
-        <v>104</v>
-      </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2248,32 +2131,29 @@
       <c r="D39" t="s">
         <v>103</v>
       </c>
-      <c r="E39" t="s">
-        <v>104</v>
-      </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2289,32 +2169,29 @@
       <c r="D40" t="s">
         <v>103</v>
       </c>
-      <c r="E40" t="s">
-        <v>104</v>
-      </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2330,32 +2207,29 @@
       <c r="D41" t="s">
         <v>103</v>
       </c>
-      <c r="E41" t="s">
-        <v>104</v>
-      </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2371,32 +2245,29 @@
       <c r="D42" t="s">
         <v>103</v>
       </c>
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2412,32 +2283,29 @@
       <c r="D43" t="s">
         <v>103</v>
       </c>
-      <c r="E43" t="s">
-        <v>104</v>
-      </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M43" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2453,32 +2321,29 @@
       <c r="D44" t="s">
         <v>103</v>
       </c>
-      <c r="E44" t="s">
-        <v>104</v>
-      </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M44" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2494,32 +2359,29 @@
       <c r="D45" t="s">
         <v>103</v>
       </c>
-      <c r="E45" t="s">
-        <v>104</v>
-      </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -2535,32 +2397,29 @@
       <c r="D46" t="s">
         <v>103</v>
       </c>
-      <c r="E46" t="s">
-        <v>104</v>
-      </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M46" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -2576,32 +2435,29 @@
       <c r="D47" t="s">
         <v>103</v>
       </c>
-      <c r="E47" t="s">
-        <v>104</v>
-      </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J47" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2617,32 +2473,29 @@
       <c r="D48" t="s">
         <v>103</v>
       </c>
-      <c r="E48" t="s">
-        <v>104</v>
-      </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G48" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2658,26 +2511,23 @@
       <c r="D49" t="s">
         <v>103</v>
       </c>
-      <c r="E49" t="s">
-        <v>104</v>
-      </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G49" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J49" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K49" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2693,26 +2543,23 @@
       <c r="D50" t="s">
         <v>103</v>
       </c>
-      <c r="E50" t="s">
-        <v>104</v>
-      </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K50" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
